--- a/Основы Машинного обучения/Лаб3/PythonApplication1/data.xlsx
+++ b/Основы Машинного обучения/Лаб3/PythonApplication1/data.xlsx
@@ -1,26 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25726"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Учёба\4 курс\LabsAntonAndrew\Основы Машинного обучения\PythonApplication1\PythonApplication1\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CAE057D-0D6B-45F9-AC97-98312FCC78E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4590" yWindow="1965" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="9">
   <si>
     <t>Nh1</t>
   </si>
@@ -39,12 +33,21 @@
   <si>
     <t>u</t>
   </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>first</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -103,25 +106,17 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Стандартная">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -159,9 +154,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Стандартная">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,27 +188,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -245,27 +222,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Стандартная">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -438,16 +397,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="A2:F17"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -465,6 +422,646 @@
       </c>
       <c r="F1" s="1" t="s">
         <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2">
+        <v>1.414213562373095</v>
+      </c>
+      <c r="F2">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F3">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F4">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F5">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F6">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>2</v>
+      </c>
+      <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="F7">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="F8">
+        <v>0.07142857142857144</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9">
+        <v>0</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="F10">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11">
+        <v>2</v>
+      </c>
+      <c r="B11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="F11">
+        <v>0.07142857142857144</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12">
+        <v>1</v>
+      </c>
+      <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F12">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13">
+        <v>0</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14">
+        <v>4</v>
+      </c>
+      <c r="B14">
+        <v>2</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14">
+        <v>4.47213595499958</v>
+      </c>
+      <c r="F14">
+        <v>0.04761904761904761</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>2</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="F15">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16">
+        <v>0</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17" t="s">
+        <v>8</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18">
+        <v>1.414213562373095</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F19">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20">
+        <v>2</v>
+      </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F20">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21">
+        <v>2</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F21">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22">
+        <v>2</v>
+      </c>
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F22">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23">
+        <v>2</v>
+      </c>
+      <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="F23">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
+      <c r="A24">
+        <v>3</v>
+      </c>
+      <c r="B24">
+        <v>2</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+      <c r="D24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="F24">
+        <v>0.07142857142857144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25">
+        <v>0</v>
+      </c>
+      <c r="B25">
+        <v>2</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25" t="s">
+        <v>7</v>
+      </c>
+      <c r="E25">
+        <v>2</v>
+      </c>
+      <c r="F25">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26">
+        <v>2</v>
+      </c>
+      <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
+        <v>2</v>
+      </c>
+      <c r="D26" t="s">
+        <v>7</v>
+      </c>
+      <c r="E26">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="F26">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27">
+        <v>2</v>
+      </c>
+      <c r="B27">
+        <v>3</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27" t="s">
+        <v>7</v>
+      </c>
+      <c r="E27">
+        <v>3.605551275463989</v>
+      </c>
+      <c r="F27">
+        <v>0.07142857142857144</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>2</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
+      </c>
+      <c r="D28" t="s">
+        <v>8</v>
+      </c>
+      <c r="E28">
+        <v>2.23606797749979</v>
+      </c>
+      <c r="F28">
+        <v>0.1666666666666666</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29">
+        <v>0</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
+      </c>
+      <c r="D29" t="s">
+        <v>8</v>
+      </c>
+      <c r="E29">
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30">
+        <v>4</v>
+      </c>
+      <c r="B30">
+        <v>2</v>
+      </c>
+      <c r="C30">
+        <v>0</v>
+      </c>
+      <c r="D30" t="s">
+        <v>8</v>
+      </c>
+      <c r="E30">
+        <v>4.47213595499958</v>
+      </c>
+      <c r="F30">
+        <v>0.04761904761904761</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31">
+        <v>2</v>
+      </c>
+      <c r="B31">
+        <v>2</v>
+      </c>
+      <c r="C31">
+        <v>0</v>
+      </c>
+      <c r="D31" t="s">
+        <v>8</v>
+      </c>
+      <c r="E31">
+        <v>2.82842712474619</v>
+      </c>
+      <c r="F31">
+        <v>0.1111111111111111</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32">
+        <v>0</v>
+      </c>
+      <c r="B32">
+        <v>0</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
+      </c>
+      <c r="D32" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32">
+        <v>0</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33">
+        <v>0</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+      <c r="C33">
+        <v>0</v>
+      </c>
+      <c r="D33" t="s">
+        <v>8</v>
+      </c>
+      <c r="E33">
+        <v>0</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
